--- a/natmiOut/YoungD4/LR-pairs_lrc2p/F13a1-Itga4.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/F13a1-Itga4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,12 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>M1</t>
   </si>
   <si>
@@ -89,9 +95,6 @@
   </si>
   <si>
     <t>Itga4</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>139.302119615405</v>
+        <v>0.4914656666666666</v>
       </c>
       <c r="H2">
-        <v>139.302119615405</v>
+        <v>1.474397</v>
       </c>
       <c r="I2">
-        <v>0.4575715551908895</v>
+        <v>0.001412343595284977</v>
       </c>
       <c r="J2">
-        <v>0.4575715551908895</v>
+        <v>0.001412343595284977</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.401300088170972</v>
+        <v>0.403827</v>
       </c>
       <c r="N2">
-        <v>0.401300088170972</v>
+        <v>1.211481</v>
       </c>
       <c r="O2">
-        <v>0.005341692140345045</v>
+        <v>0.005172149156755268</v>
       </c>
       <c r="P2">
-        <v>0.005341692140345045</v>
+        <v>0.005172149156755267</v>
       </c>
       <c r="Q2">
-        <v>55.90195288406531</v>
+        <v>0.198467105773</v>
       </c>
       <c r="R2">
-        <v>55.90195288406531</v>
+        <v>1.786203951957</v>
       </c>
       <c r="S2">
-        <v>0.002444206380008633</v>
+        <v>7.304851735401896E-06</v>
       </c>
       <c r="T2">
-        <v>0.002444206380008633</v>
+        <v>7.304851735401896E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>139.302119615405</v>
+        <v>0.4914656666666666</v>
       </c>
       <c r="H3">
-        <v>139.302119615405</v>
+        <v>1.474397</v>
       </c>
       <c r="I3">
-        <v>0.4575715551908895</v>
+        <v>0.001412343595284977</v>
       </c>
       <c r="J3">
-        <v>0.4575715551908895</v>
+        <v>0.001412343595284977</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>23.4340792702359</v>
+        <v>0.137516</v>
       </c>
       <c r="N3">
-        <v>23.4340792702359</v>
+        <v>0.412548</v>
       </c>
       <c r="O3">
-        <v>0.3119302505627921</v>
+        <v>0.001761282092183924</v>
       </c>
       <c r="P3">
-        <v>0.3119302505627921</v>
+        <v>0.001761282092183924</v>
       </c>
       <c r="Q3">
-        <v>3264.416913579284</v>
+        <v>0.06758439261733333</v>
       </c>
       <c r="R3">
-        <v>3264.416913579284</v>
+        <v>0.608259533556</v>
       </c>
       <c r="S3">
-        <v>0.1427304098611006</v>
+        <v>2.487535482386089E-06</v>
       </c>
       <c r="T3">
-        <v>0.1427304098611006</v>
+        <v>2.487535482386089E-06</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>139.302119615405</v>
+        <v>0.4914656666666666</v>
       </c>
       <c r="H4">
-        <v>139.302119615405</v>
+        <v>1.474397</v>
       </c>
       <c r="I4">
-        <v>0.4575715551908895</v>
+        <v>0.001412343595284977</v>
       </c>
       <c r="J4">
-        <v>0.4575715551908895</v>
+        <v>0.001412343595284977</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>50.8685390322163</v>
+        <v>23.43656066666667</v>
       </c>
       <c r="N4">
-        <v>50.8685390322163</v>
+        <v>70.309682</v>
       </c>
       <c r="O4">
-        <v>0.6771094329375232</v>
+        <v>0.3001715771588915</v>
       </c>
       <c r="P4">
-        <v>0.6771094329375232</v>
+        <v>0.3001715771588914</v>
       </c>
       <c r="Q4">
-        <v>7086.095308926692</v>
+        <v>11.51826491241711</v>
       </c>
       <c r="R4">
-        <v>7086.095308926692</v>
+        <v>103.664384211754</v>
       </c>
       <c r="S4">
-        <v>0.3098260162636438</v>
+        <v>0.0004239454044869506</v>
       </c>
       <c r="T4">
-        <v>0.3098260162636438</v>
+        <v>0.0004239454044869506</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,123 +711,123 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>139.302119615405</v>
+        <v>0.4914656666666666</v>
       </c>
       <c r="H5">
-        <v>139.302119615405</v>
+        <v>1.474397</v>
       </c>
       <c r="I5">
-        <v>0.4575715551908895</v>
+        <v>0.001412343595284977</v>
       </c>
       <c r="J5">
-        <v>0.4575715551908895</v>
+        <v>0.001412343595284977</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.422104904506321</v>
+        <v>53.66901333333334</v>
       </c>
       <c r="N5">
-        <v>0.422104904506321</v>
+        <v>161.00704</v>
       </c>
       <c r="O5">
-        <v>0.005618624359339496</v>
+        <v>0.6873838105324489</v>
       </c>
       <c r="P5">
-        <v>0.005618624359339496</v>
+        <v>0.6873838105324488</v>
       </c>
       <c r="Q5">
-        <v>58.80010789778863</v>
+        <v>26.37647741720889</v>
       </c>
       <c r="R5">
-        <v>58.80010789778863</v>
+        <v>237.38829675488</v>
       </c>
       <c r="S5">
-        <v>0.002570922686136388</v>
+        <v>0.0009708221223080862</v>
       </c>
       <c r="T5">
-        <v>0.002570922686136388</v>
+        <v>0.0009708221223080862</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>25</v>
-      </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>164.962730297514</v>
+        <v>0.4914656666666666</v>
       </c>
       <c r="H6">
-        <v>164.962730297514</v>
+        <v>1.474397</v>
       </c>
       <c r="I6">
-        <v>0.5418600467757808</v>
+        <v>0.001412343595284977</v>
       </c>
       <c r="J6">
-        <v>0.5418600467757808</v>
+        <v>0.001412343595284977</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.401300088170972</v>
+        <v>0.4302976666666667</v>
       </c>
       <c r="N6">
-        <v>0.401300088170972</v>
+        <v>1.290893</v>
       </c>
       <c r="O6">
-        <v>0.005341692140345045</v>
+        <v>0.005511181059720522</v>
       </c>
       <c r="P6">
-        <v>0.005341692140345045</v>
+        <v>0.005511181059720521</v>
       </c>
       <c r="Q6">
-        <v>66.19955821331665</v>
+        <v>0.2114765296134444</v>
       </c>
       <c r="R6">
-        <v>66.19955821331665</v>
+        <v>1.903288766521</v>
       </c>
       <c r="S6">
-        <v>0.002894449553029187</v>
+        <v>7.783681272152151E-06</v>
       </c>
       <c r="T6">
-        <v>0.002894449553029187</v>
+        <v>7.783681272152151E-06</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -844,49 +847,49 @@
         <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>164.962730297514</v>
+        <v>0.02255533333333333</v>
       </c>
       <c r="H7">
-        <v>164.962730297514</v>
+        <v>0.067666</v>
       </c>
       <c r="I7">
-        <v>0.5418600467757808</v>
+        <v>6.481812003046212E-05</v>
       </c>
       <c r="J7">
-        <v>0.5418600467757808</v>
+        <v>6.481812003046213E-05</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>23.4340792702359</v>
+        <v>0.403827</v>
       </c>
       <c r="N7">
-        <v>23.4340792702359</v>
+        <v>1.211481</v>
       </c>
       <c r="O7">
-        <v>0.3119302505627921</v>
+        <v>0.005172149156755268</v>
       </c>
       <c r="P7">
-        <v>0.3119302505627921</v>
+        <v>0.005172149156755267</v>
       </c>
       <c r="Q7">
-        <v>3865.749698426489</v>
+        <v>0.009108452594</v>
       </c>
       <c r="R7">
-        <v>3865.749698426489</v>
+        <v>0.081976073346</v>
       </c>
       <c r="S7">
-        <v>0.1690225401607356</v>
+        <v>3.352489848580164E-07</v>
       </c>
       <c r="T7">
-        <v>0.1690225401607356</v>
+        <v>3.352489848580164E-07</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -906,49 +909,49 @@
         <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>164.962730297514</v>
+        <v>0.02255533333333333</v>
       </c>
       <c r="H8">
-        <v>164.962730297514</v>
+        <v>0.067666</v>
       </c>
       <c r="I8">
-        <v>0.5418600467757808</v>
+        <v>6.481812003046212E-05</v>
       </c>
       <c r="J8">
-        <v>0.5418600467757808</v>
+        <v>6.481812003046213E-05</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>50.8685390322163</v>
+        <v>0.137516</v>
       </c>
       <c r="N8">
-        <v>50.8685390322163</v>
+        <v>0.412548</v>
       </c>
       <c r="O8">
-        <v>0.6771094329375232</v>
+        <v>0.001761282092183924</v>
       </c>
       <c r="P8">
-        <v>0.6771094329375232</v>
+        <v>0.001761282092183924</v>
       </c>
       <c r="Q8">
-        <v>8391.413085000062</v>
+        <v>0.003101719218666667</v>
       </c>
       <c r="R8">
-        <v>8391.413085000062</v>
+        <v>0.027915472968</v>
       </c>
       <c r="S8">
-        <v>0.3668985490038488</v>
+        <v>1.14162994058681E-07</v>
       </c>
       <c r="T8">
-        <v>0.3668985490038488</v>
+        <v>1.14162994058681E-07</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,10 +959,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
@@ -968,173 +971,173 @@
         <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>164.962730297514</v>
+        <v>0.02255533333333333</v>
       </c>
       <c r="H9">
-        <v>164.962730297514</v>
+        <v>0.067666</v>
       </c>
       <c r="I9">
-        <v>0.5418600467757808</v>
+        <v>6.481812003046212E-05</v>
       </c>
       <c r="J9">
-        <v>0.5418600467757808</v>
+        <v>6.481812003046213E-05</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.422104904506321</v>
+        <v>23.43656066666667</v>
       </c>
       <c r="N9">
-        <v>0.422104904506321</v>
+        <v>70.309682</v>
       </c>
       <c r="O9">
-        <v>0.005618624359339496</v>
+        <v>0.3001715771588915</v>
       </c>
       <c r="P9">
-        <v>0.005618624359339496</v>
+        <v>0.3001715771588914</v>
       </c>
       <c r="Q9">
-        <v>69.63157751933414</v>
+        <v>0.5286194380235555</v>
       </c>
       <c r="R9">
-        <v>69.63157751933414</v>
+        <v>4.757574942212</v>
       </c>
       <c r="S9">
-        <v>0.003044508058167241</v>
+        <v>1.945655731801815E-05</v>
       </c>
       <c r="T9">
-        <v>0.003044508058167241</v>
+        <v>1.945655731801815E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>25</v>
-      </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.17304189897693</v>
+        <v>0.02255533333333333</v>
       </c>
       <c r="H10">
-        <v>0.17304189897693</v>
+        <v>0.067666</v>
       </c>
       <c r="I10">
-        <v>0.0005683980333297276</v>
+        <v>6.481812003046212E-05</v>
       </c>
       <c r="J10">
-        <v>0.0005683980333297276</v>
+        <v>6.481812003046213E-05</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.401300088170972</v>
+        <v>53.66901333333334</v>
       </c>
       <c r="N10">
-        <v>0.401300088170972</v>
+        <v>161.00704</v>
       </c>
       <c r="O10">
-        <v>0.005341692140345045</v>
+        <v>0.6873838105324489</v>
       </c>
       <c r="P10">
-        <v>0.005341692140345045</v>
+        <v>0.6873838105324488</v>
       </c>
       <c r="Q10">
-        <v>0.06944172931671444</v>
+        <v>1.210522485404445</v>
       </c>
       <c r="R10">
-        <v>0.06944172931671444</v>
+        <v>10.89470236864</v>
       </c>
       <c r="S10">
-        <v>3.036207307224987E-06</v>
+        <v>4.45549263380887E-05</v>
       </c>
       <c r="T10">
-        <v>3.036207307224987E-06</v>
+        <v>4.455492633808871E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="D11" t="s">
-        <v>20</v>
-      </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.17304189897693</v>
+        <v>0.02255533333333333</v>
       </c>
       <c r="H11">
-        <v>0.17304189897693</v>
+        <v>0.067666</v>
       </c>
       <c r="I11">
-        <v>0.0005683980333297276</v>
+        <v>6.481812003046212E-05</v>
       </c>
       <c r="J11">
-        <v>0.0005683980333297276</v>
+        <v>6.481812003046213E-05</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>23.4340792702359</v>
+        <v>0.4302976666666667</v>
       </c>
       <c r="N11">
-        <v>23.4340792702359</v>
+        <v>1.290893</v>
       </c>
       <c r="O11">
-        <v>0.3119302505627921</v>
+        <v>0.005511181059720522</v>
       </c>
       <c r="P11">
-        <v>0.3119302505627921</v>
+        <v>0.005511181059720521</v>
       </c>
       <c r="Q11">
-        <v>4.055077577697531</v>
+        <v>0.009705507304222222</v>
       </c>
       <c r="R11">
-        <v>4.055077577697531</v>
+        <v>0.08734956573800001</v>
       </c>
       <c r="S11">
-        <v>0.0001773005409559402</v>
+        <v>3.572243954385743E-07</v>
       </c>
       <c r="T11">
-        <v>0.0001773005409559402</v>
+        <v>3.572243954385743E-07</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.17304189897693</v>
+        <v>142.6799063333333</v>
       </c>
       <c r="H12">
-        <v>0.17304189897693</v>
+        <v>428.039719</v>
       </c>
       <c r="I12">
-        <v>0.0005683980333297276</v>
+        <v>0.410024678331027</v>
       </c>
       <c r="J12">
-        <v>0.0005683980333297276</v>
+        <v>0.4100246783310271</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>50.8685390322163</v>
+        <v>0.403827</v>
       </c>
       <c r="N12">
-        <v>50.8685390322163</v>
+        <v>1.211481</v>
       </c>
       <c r="O12">
-        <v>0.6771094329375232</v>
+        <v>0.005172149156755268</v>
       </c>
       <c r="P12">
-        <v>0.6771094329375232</v>
+        <v>0.005172149156755267</v>
       </c>
       <c r="Q12">
-        <v>8.802388592316793</v>
+        <v>57.61799853487099</v>
       </c>
       <c r="R12">
-        <v>8.802388592316793</v>
+        <v>518.561986813839</v>
       </c>
       <c r="S12">
-        <v>0.0003848676700306953</v>
+        <v>0.002120708794278671</v>
       </c>
       <c r="T12">
-        <v>0.0003848676700306953</v>
+        <v>0.002120708794278671</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1207,867 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>142.6799063333333</v>
+      </c>
+      <c r="H13">
+        <v>428.039719</v>
+      </c>
+      <c r="I13">
+        <v>0.410024678331027</v>
+      </c>
+      <c r="J13">
+        <v>0.4100246783310271</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.137516</v>
+      </c>
+      <c r="N13">
+        <v>0.412548</v>
+      </c>
+      <c r="O13">
+        <v>0.001761282092183924</v>
+      </c>
+      <c r="P13">
+        <v>0.001761282092183924</v>
+      </c>
+      <c r="Q13">
+        <v>19.62076999933467</v>
+      </c>
+      <c r="R13">
+        <v>176.586929994012</v>
+      </c>
+      <c r="S13">
+        <v>0.0007221691232979116</v>
+      </c>
+      <c r="T13">
+        <v>0.0007221691232979117</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>142.6799063333333</v>
+      </c>
+      <c r="H14">
+        <v>428.039719</v>
+      </c>
+      <c r="I14">
+        <v>0.410024678331027</v>
+      </c>
+      <c r="J14">
+        <v>0.4100246783310271</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>23.43656066666667</v>
+      </c>
+      <c r="N14">
+        <v>70.309682</v>
+      </c>
+      <c r="O14">
+        <v>0.3001715771588915</v>
+      </c>
+      <c r="P14">
+        <v>0.3001715771588914</v>
+      </c>
+      <c r="Q14">
+        <v>3343.926280695484</v>
+      </c>
+      <c r="R14">
+        <v>30095.33652625935</v>
+      </c>
+      <c r="S14">
+        <v>0.1230777543686915</v>
+      </c>
+      <c r="T14">
+        <v>0.1230777543686915</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>142.6799063333333</v>
+      </c>
+      <c r="H15">
+        <v>428.039719</v>
+      </c>
+      <c r="I15">
+        <v>0.410024678331027</v>
+      </c>
+      <c r="J15">
+        <v>0.4100246783310271</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>53.66901333333334</v>
+      </c>
+      <c r="N15">
+        <v>161.00704</v>
+      </c>
+      <c r="O15">
+        <v>0.6873838105324489</v>
+      </c>
+      <c r="P15">
+        <v>0.6873838105324488</v>
+      </c>
+      <c r="Q15">
+        <v>7657.489795402418</v>
+      </c>
+      <c r="R15">
+        <v>68917.40815862177</v>
+      </c>
+      <c r="S15">
+        <v>0.281844325803523</v>
+      </c>
+      <c r="T15">
+        <v>0.281844325803523</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>142.6799063333333</v>
+      </c>
+      <c r="H16">
+        <v>428.039719</v>
+      </c>
+      <c r="I16">
+        <v>0.410024678331027</v>
+      </c>
+      <c r="J16">
+        <v>0.4100246783310271</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.4302976666666667</v>
+      </c>
+      <c r="N16">
+        <v>1.290893</v>
+      </c>
+      <c r="O16">
+        <v>0.005511181059720522</v>
+      </c>
+      <c r="P16">
+        <v>0.005511181059720521</v>
+      </c>
+      <c r="Q16">
+        <v>61.39483077545189</v>
+      </c>
+      <c r="R16">
+        <v>552.553476979067</v>
+      </c>
+      <c r="S16">
+        <v>0.002259720241235956</v>
+      </c>
+      <c r="T16">
+        <v>0.002259720241235956</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>204.5856933333333</v>
+      </c>
+      <c r="H17">
+        <v>613.75708</v>
+      </c>
+      <c r="I17">
+        <v>0.5879256950460487</v>
+      </c>
+      <c r="J17">
+        <v>0.5879256950460489</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.403827</v>
+      </c>
+      <c r="N17">
+        <v>1.211481</v>
+      </c>
+      <c r="O17">
+        <v>0.005172149156755268</v>
+      </c>
+      <c r="P17">
+        <v>0.005172149156755267</v>
+      </c>
+      <c r="Q17">
+        <v>82.61722678171999</v>
+      </c>
+      <c r="R17">
+        <v>743.55504103548</v>
+      </c>
+      <c r="S17">
+        <v>0.003040839387867175</v>
+      </c>
+      <c r="T17">
+        <v>0.003040839387867176</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>204.5856933333333</v>
+      </c>
+      <c r="H18">
+        <v>613.75708</v>
+      </c>
+      <c r="I18">
+        <v>0.5879256950460487</v>
+      </c>
+      <c r="J18">
+        <v>0.5879256950460489</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M18">
+        <v>0.137516</v>
+      </c>
+      <c r="N18">
+        <v>0.412548</v>
+      </c>
+      <c r="O18">
+        <v>0.001761282092183924</v>
+      </c>
+      <c r="P18">
+        <v>0.001761282092183924</v>
+      </c>
+      <c r="Q18">
+        <v>28.13380620442667</v>
+      </c>
+      <c r="R18">
+        <v>253.20425583984</v>
+      </c>
+      <c r="S18">
+        <v>0.001035502998219392</v>
+      </c>
+      <c r="T18">
+        <v>0.001035502998219393</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0.17304189897693</v>
-      </c>
-      <c r="H13">
-        <v>0.17304189897693</v>
-      </c>
-      <c r="I13">
-        <v>0.0005683980333297276</v>
-      </c>
-      <c r="J13">
-        <v>0.0005683980333297276</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>0.422104904506321</v>
-      </c>
-      <c r="N13">
-        <v>0.422104904506321</v>
-      </c>
-      <c r="O13">
-        <v>0.005618624359339496</v>
-      </c>
-      <c r="P13">
-        <v>0.005618624359339496</v>
-      </c>
-      <c r="Q13">
-        <v>0.07304183424324949</v>
-      </c>
-      <c r="R13">
-        <v>0.07304183424324949</v>
-      </c>
-      <c r="S13">
-        <v>3.19361503586707E-06</v>
-      </c>
-      <c r="T13">
-        <v>3.19361503586707E-06</v>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>204.5856933333333</v>
+      </c>
+      <c r="H19">
+        <v>613.75708</v>
+      </c>
+      <c r="I19">
+        <v>0.5879256950460487</v>
+      </c>
+      <c r="J19">
+        <v>0.5879256950460489</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>23.43656066666667</v>
+      </c>
+      <c r="N19">
+        <v>70.309682</v>
+      </c>
+      <c r="O19">
+        <v>0.3001715771588915</v>
+      </c>
+      <c r="P19">
+        <v>0.3001715771588914</v>
+      </c>
+      <c r="Q19">
+        <v>4794.785013338728</v>
+      </c>
+      <c r="R19">
+        <v>43153.06512004855</v>
+      </c>
+      <c r="S19">
+        <v>0.1764785831342099</v>
+      </c>
+      <c r="T19">
+        <v>0.1764785831342099</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>204.5856933333333</v>
+      </c>
+      <c r="H20">
+        <v>613.75708</v>
+      </c>
+      <c r="I20">
+        <v>0.5879256950460487</v>
+      </c>
+      <c r="J20">
+        <v>0.5879256950460489</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>53.66901333333334</v>
+      </c>
+      <c r="N20">
+        <v>161.00704</v>
+      </c>
+      <c r="O20">
+        <v>0.6873838105324489</v>
+      </c>
+      <c r="P20">
+        <v>0.6873838105324488</v>
+      </c>
+      <c r="Q20">
+        <v>10979.91230331591</v>
+      </c>
+      <c r="R20">
+        <v>98819.21072984321</v>
+      </c>
+      <c r="S20">
+        <v>0.4041306045706915</v>
+      </c>
+      <c r="T20">
+        <v>0.4041306045706915</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>204.5856933333333</v>
+      </c>
+      <c r="H21">
+        <v>613.75708</v>
+      </c>
+      <c r="I21">
+        <v>0.5879256950460487</v>
+      </c>
+      <c r="J21">
+        <v>0.5879256950460489</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.4302976666666667</v>
+      </c>
+      <c r="N21">
+        <v>1.290893</v>
+      </c>
+      <c r="O21">
+        <v>0.005511181059720522</v>
+      </c>
+      <c r="P21">
+        <v>0.005511181059720521</v>
+      </c>
+      <c r="Q21">
+        <v>88.03274647471555</v>
+      </c>
+      <c r="R21">
+        <v>792.29471827244</v>
+      </c>
+      <c r="S21">
+        <v>0.003240164955060808</v>
+      </c>
+      <c r="T21">
+        <v>0.003240164955060808</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.1992056666666667</v>
+      </c>
+      <c r="H22">
+        <v>0.5976170000000001</v>
+      </c>
+      <c r="I22">
+        <v>0.0005724649076086171</v>
+      </c>
+      <c r="J22">
+        <v>0.0005724649076086171</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0.403827</v>
+      </c>
+      <c r="N22">
+        <v>1.211481</v>
+      </c>
+      <c r="O22">
+        <v>0.005172149156755268</v>
+      </c>
+      <c r="P22">
+        <v>0.005172149156755267</v>
+      </c>
+      <c r="Q22">
+        <v>0.08044462675300001</v>
+      </c>
+      <c r="R22">
+        <v>0.7240016407770001</v>
+      </c>
+      <c r="S22">
+        <v>2.960873889159891E-06</v>
+      </c>
+      <c r="T22">
+        <v>2.960873889159891E-06</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.1992056666666667</v>
+      </c>
+      <c r="H23">
+        <v>0.5976170000000001</v>
+      </c>
+      <c r="I23">
+        <v>0.0005724649076086171</v>
+      </c>
+      <c r="J23">
+        <v>0.0005724649076086171</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M23">
+        <v>0.137516</v>
+      </c>
+      <c r="N23">
+        <v>0.412548</v>
+      </c>
+      <c r="O23">
+        <v>0.001761282092183924</v>
+      </c>
+      <c r="P23">
+        <v>0.001761282092183924</v>
+      </c>
+      <c r="Q23">
+        <v>0.02739396645733334</v>
+      </c>
+      <c r="R23">
+        <v>0.2465456981160001</v>
+      </c>
+      <c r="S23">
+        <v>1.008272190174782E-06</v>
+      </c>
+      <c r="T23">
+        <v>1.008272190174782E-06</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.1992056666666667</v>
+      </c>
+      <c r="H24">
+        <v>0.5976170000000001</v>
+      </c>
+      <c r="I24">
+        <v>0.0005724649076086171</v>
+      </c>
+      <c r="J24">
+        <v>0.0005724649076086171</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>23.43656066666667</v>
+      </c>
+      <c r="N24">
+        <v>70.309682</v>
+      </c>
+      <c r="O24">
+        <v>0.3001715771588915</v>
+      </c>
+      <c r="P24">
+        <v>0.3001715771588914</v>
+      </c>
+      <c r="Q24">
+        <v>4.668695691977112</v>
+      </c>
+      <c r="R24">
+        <v>42.018261227794</v>
+      </c>
+      <c r="S24">
+        <v>0.0001718376941849977</v>
+      </c>
+      <c r="T24">
+        <v>0.0001718376941849977</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.1992056666666667</v>
+      </c>
+      <c r="H25">
+        <v>0.5976170000000001</v>
+      </c>
+      <c r="I25">
+        <v>0.0005724649076086171</v>
+      </c>
+      <c r="J25">
+        <v>0.0005724649076086171</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>53.66901333333334</v>
+      </c>
+      <c r="N25">
+        <v>161.00704</v>
+      </c>
+      <c r="O25">
+        <v>0.6873838105324489</v>
+      </c>
+      <c r="P25">
+        <v>0.6873838105324488</v>
+      </c>
+      <c r="Q25">
+        <v>10.69117158040889</v>
+      </c>
+      <c r="R25">
+        <v>96.22054422368002</v>
+      </c>
+      <c r="S25">
+        <v>0.0003935031095881175</v>
+      </c>
+      <c r="T25">
+        <v>0.0003935031095881175</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.1992056666666667</v>
+      </c>
+      <c r="H26">
+        <v>0.5976170000000001</v>
+      </c>
+      <c r="I26">
+        <v>0.0005724649076086171</v>
+      </c>
+      <c r="J26">
+        <v>0.0005724649076086171</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.4302976666666667</v>
+      </c>
+      <c r="N26">
+        <v>1.290893</v>
+      </c>
+      <c r="O26">
+        <v>0.005511181059720522</v>
+      </c>
+      <c r="P26">
+        <v>0.005511181059720521</v>
+      </c>
+      <c r="Q26">
+        <v>0.08571773355344446</v>
+      </c>
+      <c r="R26">
+        <v>0.7714596019810002</v>
+      </c>
+      <c r="S26">
+        <v>3.154957756167269E-06</v>
+      </c>
+      <c r="T26">
+        <v>3.154957756167269E-06</v>
       </c>
     </row>
   </sheetData>
